--- a/Data_files/Duan_carbohydrates.xlsx
+++ b/Data_files/Duan_carbohydrates.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-160" yWindow="2000" windowWidth="24860" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GHS30_Eglob-TxCxW_carbohydrates" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GHS30_Eglob-TxCxW_carbohydrates'!$A$1:$I$217</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -453,11 +456,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -494,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -523,7 +527,7 @@
         <v>96.708642999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -552,7 +556,7 @@
         <v>92.808588</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -581,7 +585,7 @@
         <v>24.818389</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -610,7 +614,7 @@
         <v>32.595506</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -639,7 +643,7 @@
         <v>25.651215000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -668,7 +672,7 @@
         <v>42.464942999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -697,7 +701,7 @@
         <v>124.747951</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -726,7 +730,7 @@
         <v>66.867596000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -755,7 +759,7 @@
         <v>26.757853999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -784,7 +788,7 @@
         <v>12.448664000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -813,7 +817,7 @@
         <v>28.552372999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -842,7 +846,7 @@
         <v>53.568939999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -871,7 +875,7 @@
         <v>93.640871000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -900,7 +904,7 @@
         <v>71.936397999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -929,7 +933,7 @@
         <v>24.871658</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -958,7 +962,7 @@
         <v>18.087833</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -987,7 +991,7 @@
         <v>36.505364999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>24.008676999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>85.151258999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>100.920433</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>14.203357</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>46.850760999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>31.760131000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>53.733592000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>83.297420000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>54.544108999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>9.8640120000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>32.424430000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>38.716307999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>104.38920899999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>95.840179000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>22.53689</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>40.355224999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>13.380549</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>25.608933</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>53.185645999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>70.816999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>17.077235000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>24.722342000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1687,7 @@
         <v>30.576495000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>43.056742</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>88.593091000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>55.091577000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>29.287246</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>29.485758000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>46.110855000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>37.529468000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>105.998391</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>107.02740799999999</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>30.891486</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>28.374044999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>46.306013999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>40.334350000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>87.195374999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>74.519019</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>40.756695999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>33.072096999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>51.810243999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>49.171066000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2296,7 @@
         <v>72.650550999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>18.279353</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>17.067461000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>36.873134</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>32.127051999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>95.330979999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>68.556535999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>25.352295999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>17.993459999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>34.50038</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>40.105839000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>102.60731800000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>118.516554</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>27.902574000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>36.890121000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>47.928455</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>47.236615</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>113.475667</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>95.462641000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>37.224840999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>36.652621000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>42.557775999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>45.949787999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>119.286191</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>54.762422999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>43.526572999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>26.260956</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>55.209375999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>45.441946999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3133,7 +3137,7 @@
         <v>88.850026999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>86.239203000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>32.134884</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>27.27458</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>63.997135999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>50.249468</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>90.318724000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>23.404875000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>19.381929</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>31.594752</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3481,7 +3485,7 @@
         <v>97.732907999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>101.47686400000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>25.131544999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>31.993824</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>33.687691000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>47.750342000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>140.04682600000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>130.29517300000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>50.398574000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>39.914299999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>59.542565000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>54.732545000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3829,7 +3833,7 @@
         <v>129.65414799999999</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>129.20453900000001</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>44.071750999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3916,7 +3920,7 @@
         <v>80.937567000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>66.660211000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3974,7 +3978,7 @@
         <v>51.367494999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>130.884198</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>125.32690100000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4061,7 +4065,7 @@
         <v>53.645975999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>54.293311000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>69.259494000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>58.678037000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4177,7 +4181,7 @@
         <v>123.498484</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>118.72754399999999</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>41.673011000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>28.520379999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>48.838068</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>46.980786999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>84.252460999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>28.596805</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4438,7 +4442,7 @@
         <v>23.951810999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>30.357379000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4496,7 +4500,7 @@
         <v>60.252746999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>81.997525999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>77.334090000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>19.065344</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4612,7 +4616,7 @@
         <v>32.477514999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -4641,7 +4645,7 @@
         <v>36.165140000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>41.674835999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>103.437865</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>132.283264</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -4757,7 +4761,7 @@
         <v>31.179116</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>29.248802000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>54.312845000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -4844,7 +4848,7 @@
         <v>45.831307000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>157.81932399999999</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>91.811133999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>38.247629000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>27.266541</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -4989,7 +4993,7 @@
         <v>34.833469000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>38.486800000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>124.82811100000001</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>109.74676700000001</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>41.194648999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>32.386242000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>46.303472999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>50.712919999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>157.43411499999999</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5250,7 +5254,7 @@
         <v>84.909080000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -5279,7 +5283,7 @@
         <v>39.703225000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +5312,7 @@
         <v>21.061588</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5337,7 +5341,7 @@
         <v>42.409337999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>39.966818000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>75.586202</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>25.272518000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>24.825848000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -5511,7 +5515,7 @@
         <v>28.881647999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>34.770963000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>78.531180000000006</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -5598,7 +5602,7 @@
         <v>60.794215000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>24.488845000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>32.199317999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>32.526248000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>29.041574000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>138.75677099999999</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>112.91538300000001</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -5801,7 +5805,7 @@
         <v>46.358505999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>28.979579999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>44.337539999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>66.367787000000007</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>130.02005700000001</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>120.56179400000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>60.603624000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -6004,7 +6008,7 @@
         <v>34.608410999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>35.895225000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>41.063673000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -6091,7 +6095,7 @@
         <v>102.541612</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>133.44107099999999</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>51.091042000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>30.876899999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -6207,7 +6211,7 @@
         <v>44.031244000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>73.551674000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -6265,7 +6269,7 @@
         <v>129.443986</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>97.595595000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>35.247745000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -6352,7 +6356,7 @@
         <v>23.784796</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -6381,7 +6385,7 @@
         <v>31.697854</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>81.398100999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>66.299480000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>17.102563</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="3" customFormat="1">
+    <row r="209" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A209" s="3" t="s">
         <v>9</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>16.793925000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>36.017346000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="3" customFormat="1">
+    <row r="211" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A211" s="3" t="s">
         <v>9</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>53.703864000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>91.328798000000006</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>66.84872</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -6671,7 +6675,7 @@
         <v>27.756291999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>17.621417999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>29.434726999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -6759,6 +6763,28 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I217">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Amb"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="400"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Well watered"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Leaf"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
